--- a/biology/Microbiologie/Obruchevella/Obruchevella.xlsx
+++ b/biology/Microbiologie/Obruchevella/Obruchevella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Obruchevella est un genre de microfossiles de forme hélicoïdale trouvés dans les schistes de Burgess et au niveau de la section du village de Meishu datant du Cambrien en Chine.
 Le genre a été placé dans l'embranchement des cyanobactéries et l'ordre des Oscillatoriales.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les auteurs ont décrit jusqu'à une douzaine d'espèces, parmi lesquelles on trouve :
 †Obruchevella delicata
